--- a/rhla_analysis/rhla1_6_zipf_result/k2.xlsx
+++ b/rhla_analysis/rhla1_6_zipf_result/k2.xlsx
@@ -457,21 +457,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.3582051967566726</v>
+        <v>0.3582051967566766</v>
       </c>
       <c r="B2" t="n">
-        <v>1.816461915859103</v>
+        <v>1.816461915859104</v>
       </c>
       <c r="C2" t="n">
         <v>0.07196198234894773</v>
       </c>
       <c r="D2" t="n">
-        <v>5.071009388769474</v>
+        <v>5.071009388769418</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.2886646106550506</v>
+        <v>0.2886646106550502</v>
       </c>
       <c r="B3" t="n">
         <v>9.649773193478453</v>
@@ -480,12 +480,12 @@
         <v>0.04921928038017651</v>
       </c>
       <c r="D3" t="n">
-        <v>33.4290135932519</v>
+        <v>33.42901359325194</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.1073575843569482</v>
+        <v>0.107357584356948</v>
       </c>
       <c r="B4" t="n">
         <v>2.652507401203257</v>
@@ -494,12 +494,12 @@
         <v>0.0560081466395112</v>
       </c>
       <c r="D4" t="n">
-        <v>24.70721949540201</v>
+        <v>24.70721949540205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1050356595676087</v>
+        <v>0.1050356595676086</v>
       </c>
       <c r="B5" t="n">
         <v>5.605610693327422</v>
@@ -508,12 +508,12 @@
         <v>0.07739307535641547</v>
       </c>
       <c r="D5" t="n">
-        <v>53.36864371970016</v>
+        <v>53.36864371970017</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.191901045279956</v>
+        <v>0.1919010452799571</v>
       </c>
       <c r="B6" t="n">
         <v>6.690574881685373</v>
@@ -522,26 +522,26 @@
         <v>0.06653088934147998</v>
       </c>
       <c r="D6" t="n">
-        <v>34.86471307086832</v>
+        <v>34.86471307086811</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.6143867937591344</v>
+        <v>0.6143867937591309</v>
       </c>
       <c r="B7" t="n">
-        <v>38.61656018201975</v>
+        <v>38.61656018201976</v>
       </c>
       <c r="C7" t="n">
         <v>0.05804480651731161</v>
       </c>
       <c r="D7" t="n">
-        <v>62.8538252681894</v>
+        <v>62.85382526818978</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.63383024161334</v>
+        <v>1.633830241613332</v>
       </c>
       <c r="B8" t="n">
         <v>10.10485862351967</v>
@@ -550,12 +550,12 @@
         <v>0.06720977596741344</v>
       </c>
       <c r="D8" t="n">
-        <v>6.184766548048184</v>
+        <v>6.184766548048215</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.2042041799790734</v>
+        <v>0.2042041799790746</v>
       </c>
       <c r="B9" t="n">
         <v>2.1124090093623</v>
@@ -564,12 +564,12 @@
         <v>0.05940257976917854</v>
       </c>
       <c r="D9" t="n">
-        <v>10.34459240539923</v>
+        <v>10.34459240539917</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2507290837992366</v>
+        <v>0.2507290837992357</v>
       </c>
       <c r="B10" t="n">
         <v>4.758290233382981</v>
@@ -578,21 +578,21 @@
         <v>0.04548540393754243</v>
       </c>
       <c r="D10" t="n">
-        <v>18.97781526291953</v>
+        <v>18.9778152629196</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.08981182188102642</v>
+        <v>0.08981182188102609</v>
       </c>
       <c r="B11" t="n">
-        <v>5.311388112153552</v>
+        <v>5.311388112153553</v>
       </c>
       <c r="C11" t="n">
         <v>0.07705363204344874</v>
       </c>
       <c r="D11" t="n">
-        <v>59.13907546814427</v>
+        <v>59.1390754681445</v>
       </c>
     </row>
   </sheetData>
